--- a/FRR_with_ATP_synthase_Model_Kramer/LaiskY.xlsx
+++ b/FRR_with_ATP_synthase_Model_Kramer/LaiskY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Documents/GitHub/Laisk-PSII/FRR_with_ATP_synthase_Model_Kramer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Apostolos\Documents\GitHub\Laisk-PSII\FRR_with_ATP_synthase_Model_Kramer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F980EED6-5621-434F-96B8-89DD2C12A641}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FCB91433-FDD8-4C48-9BFA-9C2C6E68570C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="460" windowWidth="14360" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ys" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="131" uniqueCount="131">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="129" uniqueCount="129">
   <si>
     <t>name</t>
   </si>
@@ -389,36 +389,6 @@
     <t>Ha</t>
   </si>
   <si>
-    <t>ASYNopenuuu</t>
-  </si>
-  <si>
-    <t>ASYNHauuu</t>
-  </si>
-  <si>
-    <t>ASYNHbcuu</t>
-  </si>
-  <si>
-    <t>ASYNopencuu</t>
-  </si>
-  <si>
-    <t>ASYNHacuu</t>
-  </si>
-  <si>
-    <t>ASYNHbccu</t>
-  </si>
-  <si>
-    <t>ASYNopenccu</t>
-  </si>
-  <si>
-    <t>ASYNHaccu</t>
-  </si>
-  <si>
-    <t>ASYNHbccc</t>
-  </si>
-  <si>
-    <t>ASYNopenccc</t>
-  </si>
-  <si>
     <t>lb</t>
   </si>
   <si>
@@ -426,6 +396,30 @@
   </si>
   <si>
     <t>independent</t>
+  </si>
+  <si>
+    <t>SynF</t>
+  </si>
+  <si>
+    <t>SynP</t>
+  </si>
+  <si>
+    <t>SynFP</t>
+  </si>
+  <si>
+    <t>SynADP</t>
+  </si>
+  <si>
+    <t>SynFD</t>
+  </si>
+  <si>
+    <t>SynFDP</t>
+  </si>
+  <si>
+    <t>SynFT</t>
+  </si>
+  <si>
+    <t>SynATP</t>
   </si>
 </sst>
 </file>
@@ -1266,32 +1260,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128:E136"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1308,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1325,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1342,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1359,7 +1353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1376,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1393,7 +1387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1410,7 +1404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1427,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1444,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1461,7 +1455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1479,7 +1473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1497,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1515,7 +1509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1533,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1551,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1569,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1587,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1606,7 +1600,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1625,7 +1619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1644,7 +1638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1663,7 +1657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1682,7 +1676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1701,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1720,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1739,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1758,7 +1752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -1777,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -1796,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1815,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -1834,7 +1828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1853,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1872,7 +1866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1891,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1910,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1929,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1948,7 +1942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -1967,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -1986,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -2005,7 +1999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -2024,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -2043,7 +2037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -2062,7 +2056,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -2081,7 +2075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
@@ -2100,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
@@ -2119,7 +2113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -2138,7 +2132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2157,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -2176,7 +2170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -2195,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -2214,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -2233,7 +2227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -2252,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -2271,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -2290,7 +2284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -2309,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -2328,7 +2322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -2347,7 +2341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -2366,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -2385,7 +2379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -2404,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -2423,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -2442,7 +2436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2461,7 +2455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -2480,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -2499,7 +2493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -2518,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -2537,7 +2531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -2556,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -2575,7 +2569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -2594,7 +2588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>72</v>
       </c>
@@ -2613,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>73</v>
       </c>
@@ -2632,7 +2626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>74</v>
       </c>
@@ -2651,7 +2645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>75</v>
       </c>
@@ -2670,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>76</v>
       </c>
@@ -2689,12 +2683,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>77</v>
       </c>
       <c r="B77">
-        <f t="shared" ref="B77:B136" si="2">E77/100</f>
+        <f t="shared" ref="B77:B117" si="2">E77/100</f>
         <v>0</v>
       </c>
       <c r="C77">
@@ -2708,7 +2702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>78</v>
       </c>
@@ -2727,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>79</v>
       </c>
@@ -2746,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>80</v>
       </c>
@@ -2765,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>81</v>
       </c>
@@ -2784,7 +2778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>82</v>
       </c>
@@ -2803,7 +2797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>83</v>
       </c>
@@ -2822,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -2831,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <f t="shared" ref="C84:C136" si="3">E84*100</f>
+        <f t="shared" ref="C84:C117" si="3">E84*100</f>
         <v>0</v>
       </c>
       <c r="D84">
@@ -2841,7 +2835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -2860,7 +2854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>86</v>
       </c>
@@ -2879,7 +2873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>87</v>
       </c>
@@ -2898,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>88</v>
       </c>
@@ -2917,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>89</v>
       </c>
@@ -2936,7 +2930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>90</v>
       </c>
@@ -2955,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -2974,7 +2968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -2993,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>93</v>
       </c>
@@ -3012,7 +3006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>94</v>
       </c>
@@ -3031,7 +3025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>95</v>
       </c>
@@ -3050,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>96</v>
       </c>
@@ -3069,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>97</v>
       </c>
@@ -3088,7 +3082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -3107,7 +3101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>99</v>
       </c>
@@ -3126,7 +3120,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>100</v>
       </c>
@@ -3145,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>101</v>
       </c>
@@ -3164,7 +3158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -3183,7 +3177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>103</v>
       </c>
@@ -3202,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -3221,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>105</v>
       </c>
@@ -3240,7 +3234,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>106</v>
       </c>
@@ -3259,7 +3253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>107</v>
       </c>
@@ -3278,7 +3272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>108</v>
       </c>
@@ -3297,7 +3291,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>109</v>
       </c>
@@ -3316,7 +3310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>110</v>
       </c>
@@ -3335,7 +3329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>111</v>
       </c>
@@ -3354,7 +3348,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>112</v>
       </c>
@@ -3373,7 +3367,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>113</v>
       </c>
@@ -3392,7 +3386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -3411,7 +3405,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>115</v>
       </c>
@@ -3430,7 +3424,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>116</v>
       </c>
@@ -3449,7 +3443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>117</v>
       </c>
@@ -3468,55 +3462,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B118">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C118">
-        <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
         <v>1</v>
       </c>
-      <c r="E118">
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119">
+        <v>0</v>
+      </c>
+      <c r="C119">
         <v>10</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>119</v>
-      </c>
-      <c r="B119">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C119">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="E119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B120">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C120">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -3525,36 +3513,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B121">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C121">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D121">
         <v>0</v>
       </c>
       <c r="E121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B122">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C122">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -3563,17 +3547,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B123">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C123">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -3582,17 +3564,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B124">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C124">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D124">
         <v>0</v>
@@ -3601,60 +3581,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B125">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C125">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>126</v>
-      </c>
-      <c r="B126">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C126">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D126">
-        <v>0</v>
-      </c>
-      <c r="E126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>127</v>
-      </c>
-      <c r="B127">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C127">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="D127">
-        <v>0</v>
-      </c>
-      <c r="E127">
         <v>0</v>
       </c>
     </row>
